--- a/Spec sheet(Grp Delta) ET1017 .xlsx
+++ b/Spec sheet(Grp Delta) ET1017 .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calb3\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LinJie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E49EF7-2AD1-46E6-A9BA-51068145B6B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36916C2F-3BC5-42AC-AA15-C880ECA52584}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>Spec no.</t>
   </si>
@@ -78,9 +78,6 @@
     <t>User finds the design convenient for troubleshooting hardware</t>
   </si>
   <si>
-    <t xml:space="preserve">Does not waver for shake when moving or stationary with a low centre of gravity </t>
-  </si>
-  <si>
     <t>Does not exceed total size of 1000x1000x1000</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Dispense fish food when button is pressed</t>
   </si>
   <si>
-    <t>Dispenses fish food when button is pressed</t>
-  </si>
-  <si>
     <t>Wei Chun</t>
   </si>
   <si>
@@ -141,24 +135,12 @@
     <t>Lin Jie</t>
   </si>
   <si>
-    <t>Using IR sensor and remote to control craft's movement and direction</t>
-  </si>
-  <si>
     <t>Floats on water and is stable when stationary or moving.</t>
   </si>
   <si>
-    <t>Floats stabaly on water surface when stationary and moving</t>
-  </si>
-  <si>
-    <t>Design the craft such that electronics are easily accessable for maintainace</t>
-  </si>
-  <si>
     <t>Through temperture sensor relaying data back to boat.</t>
   </si>
   <si>
-    <t>Can estimate if fishes fishes in the area.</t>
-  </si>
-  <si>
     <t>Wei Chun, Cheng Chei</t>
   </si>
   <si>
@@ -171,12 +153,6 @@
     <t>Met</t>
   </si>
   <si>
-    <t>Bottle rotates and dispenses the fish food</t>
-  </si>
-  <si>
-    <t>Pressing buttons will make the motors rotate in the intended directions</t>
-  </si>
-  <si>
     <t>Sufficient water-proofing of electronics</t>
   </si>
   <si>
@@ -193,6 +169,33 @@
   </si>
   <si>
     <t>Using appropriate tubing, wiring and epoxy to ensure it is waterproof</t>
+  </si>
+  <si>
+    <t>Can estimate the number of fishes fishes in the area.</t>
+  </si>
+  <si>
+    <t>Dispenses I kg of fish food 1 time when button is pressed</t>
+  </si>
+  <si>
+    <t>Bottle rotates and dispenses the fish food ( the system should be modify to be able to dispense more food mutiple times)</t>
+  </si>
+  <si>
+    <t>The wiring should be simple and clear with labers and the recharging of batt</t>
+  </si>
+  <si>
+    <t>Floats stabaly on water surface when stationary and moving, the main body should be 10mm above water level with addition load of 2kg.</t>
+  </si>
+  <si>
+    <t>Does not waver or shake when moving or stationary with a low centre of gravity, the main body is above the water level.</t>
+  </si>
+  <si>
+    <t>Using IR sensor and remote to control craft's movement and direction ( control disstance longer than 100m)</t>
+  </si>
+  <si>
+    <t>Pressing buttons will make the motors rotate in the intended directions. However, the control distance is just around 5m. Should use ESP-32)</t>
+  </si>
+  <si>
+    <t>Not Met</t>
   </si>
 </sst>
 </file>
@@ -598,7 +601,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -654,22 +657,22 @@
         <v>43484</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -680,19 +683,19 @@
         <v>43484</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -709,16 +712,16 @@
         <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -735,19 +738,19 @@
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -758,22 +761,22 @@
         <v>43484</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -784,19 +787,19 @@
         <v>43484</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -837,7 +840,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -851,19 +854,19 @@
         <v>43484</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -880,16 +883,16 @@
         <v>14</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -903,19 +906,19 @@
         <v>43484</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="I18" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -929,19 +932,19 @@
         <v>43484</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="I19" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -955,19 +958,19 @@
         <v>43484</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Spec sheet(Grp Delta) ET1017 .xlsx
+++ b/Spec sheet(Grp Delta) ET1017 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LinJie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calb3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36916C2F-3BC5-42AC-AA15-C880ECA52584}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D9A7C9-66F6-4C65-8A0C-7795DB7972B7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Has no exposed wires/electronics</t>
   </si>
   <si>
-    <t xml:space="preserve">Able to sense the presence of one or multiple fishes within a specified vicinity </t>
-  </si>
-  <si>
     <t>User finds the design convenient for troubleshooting hardware</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>Not Met</t>
+  </si>
+  <si>
+    <t>Able to sense the presence of one or multiple fishes within a specified vicinity(est range of 10meter radius)</t>
   </si>
 </sst>
 </file>
@@ -601,26 +601,26 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="6" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="6" width="34.7109375" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="47.44140625" customWidth="1"/>
+    <col min="8" max="8" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -643,10 +643,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -657,22 +657,22 @@
         <v>43484</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -683,22 +683,22 @@
         <v>43484</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="I4" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -712,19 +712,19 @@
         <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -738,19 +738,19 @@
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -761,22 +761,22 @@
         <v>43484</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="I7" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -787,22 +787,22 @@
         <v>43484</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
@@ -811,13 +811,13 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>0</v>
       </c>
@@ -840,10 +840,10 @@
         <v>5</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>1</v>
       </c>
@@ -854,22 +854,22 @@
         <v>43484</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>2</v>
       </c>
@@ -883,19 +883,19 @@
         <v>14</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>3</v>
       </c>
@@ -906,22 +906,22 @@
         <v>43484</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I18" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>4</v>
       </c>
@@ -932,22 +932,22 @@
         <v>43484</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="I19" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>5</v>
       </c>
@@ -958,19 +958,19 @@
         <v>43484</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
